--- a/src/main/java/com/Datasheet/CashInFromBank.xlsx
+++ b/src/main/java/com/Datasheet/CashInFromBank.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\API\MLWALLET_API\src\main\java\com\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FF8A81-7A71-4BFB-97B2-9714CC8554EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9B5667-05D9-4C54-BC13-BFCD29FA3C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,89 +26,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>TestCases</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>transactionId</t>
+  </si>
+  <si>
+    <t>walletNo</t>
+  </si>
+  <si>
+    <t>walletUsr</t>
+  </si>
+  <si>
+    <t>bankAccount</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>middleName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>phoneNo</t>
+  </si>
+  <si>
+    <t>procId</t>
+  </si>
+  <si>
+    <t>shortName</t>
+  </si>
+  <si>
+    <t>longName</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
     <t>user_200</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>MLPGW000001</t>
   </si>
   <si>
-    <t>transactionId</t>
-  </si>
-  <si>
-    <t>walletNo</t>
-  </si>
-  <si>
-    <t>walletUsr</t>
-  </si>
-  <si>
     <t>X221100005531K1</t>
   </si>
   <si>
-    <t>bankAccount</t>
-  </si>
-  <si>
-    <t>firstName</t>
-  </si>
-  <si>
     <t>JASPERX</t>
   </si>
   <si>
-    <t>middleName</t>
-  </si>
-  <si>
-    <t>lastName</t>
-  </si>
-  <si>
     <t>MALUBAYX</t>
   </si>
   <si>
-    <t>phoneNo</t>
-  </si>
-  <si>
-    <t>procId</t>
-  </si>
-  <si>
     <t>BOG</t>
   </si>
   <si>
-    <t>shortName</t>
-  </si>
-  <si>
     <t>BogusBank</t>
   </si>
   <si>
-    <t>longName</t>
-  </si>
-  <si>
     <t>Test Bank Online</t>
   </si>
   <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
     <t>PHP</t>
   </si>
   <si>
     <t>greanne.bucao@mlhuillier.com</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>ML Money Cash In Transaction</t>
   </si>
   <si>
@@ -127,10 +127,7 @@
     <t>nationality</t>
   </si>
   <si>
-    <t>accessKey</t>
-  </si>
-  <si>
-    <t>ML Money Cash Out Transaction</t>
+    <t xml:space="preserve"> accessKey</t>
   </si>
   <si>
     <t>North Reclamation Area</t>
@@ -145,22 +142,31 @@
     <t>M|M0n3y#?&amp;(2o22!)</t>
   </si>
   <si>
+    <t>2023-12-14</t>
+  </si>
+  <si>
+    <t>YYYYMABDHUSCJJVI</t>
+  </si>
+  <si>
+    <t>XXTSJHOEJGWUQSAX</t>
+  </si>
+  <si>
     <t>MLPGW000002</t>
   </si>
   <si>
-    <t>JASPERR</t>
-  </si>
-  <si>
-    <t>MALUBAY</t>
-  </si>
-  <si>
-    <t>MMRGONLEKHWKKTRR</t>
-  </si>
-  <si>
-    <t>PPSXBEXZIXDLHILB</t>
-  </si>
-  <si>
-    <t>XXXWWOEMEYSXLXWV</t>
+    <t>ML Money Cash Out Transaction</t>
+  </si>
+  <si>
+    <t>TTKMHADHMGRSWBJI</t>
+  </si>
+  <si>
+    <t>JJQJDBFRLLNFUOJL</t>
+  </si>
+  <si>
+    <t>2023-12-15</t>
+  </si>
+  <si>
+    <t>MMMOCTKOANACRCNP</t>
   </si>
 </sst>
 </file>
@@ -168,10 +174,137 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -184,8 +317,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <color theme="1"/>
+      <color rgb="FFA31515"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -196,12 +337,185 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -216,12 +530,119 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -239,82 +660,123 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -346,7 +808,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -358,7 +820,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -405,6 +867,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -440,6 +919,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -591,307 +1087,278 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C068361-DA74-4530-AEC9-BEAC6CED0DA5}">
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="5">
+        <v>9393344089</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="5">
+        <v>9393344089</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="6" t="s">
+      <c r="M2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="4">
+        <v>35</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="8">
-        <v>9393344089</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="8">
-        <v>9393344089</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="7">
-        <v>35</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0B55A6-E701-4A62-9966-A545D804545E}">
-  <dimension ref="A1:X9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection sqref="A1:X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="15" t="s">
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="N1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="P1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="16" t="s">
+      <c r="S1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="5">
+        <v>9393344089</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="17" t="s">
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="5">
+        <v>9393344089</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="K2" s="7">
+        <v>109323194534</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="17" t="s">
+      <c r="M2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="4">
+        <v>50</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="48" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="10">
-        <v>9393344089</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="10">
-        <v>9393344089</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="10">
-        <v>109323194534</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="12">
-        <v>50</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="T2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="U2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" s="12" t="s">
+      <c r="W2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" s="1"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{28CD0EB1-DD0A-44D6-B5DD-DC6B8D3C8A48}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>